--- a/scr/template_abertura.xlsx
+++ b/scr/template_abertura.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Setorial Análise\. 1-SETORIAL CONSTRUÇÃO E INDÚSTRIA\App - Auto_Forms\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDDBD80-6B5D-4E0E-A545-9223CF496556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23CE169-5B5D-4260-B705-1D9880CD1A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitação de novos Inform." sheetId="4" r:id="rId1"/>
+    <sheet name="Legenda" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Solicitante</t>
   </si>
@@ -110,12 +111,81 @@
   <si>
     <t>UF do Escritório</t>
   </si>
+  <si>
+    <t>Legenda - Status de Retorno</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Sugestão</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>N0</t>
+  </si>
+  <si>
+    <t>Não atua no segmento</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>Atua no segmento, mas não comercializa</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>Não comercializa mais</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>Fora de linha</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Não comercializa na região</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Não localizado</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Recusa</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Sob encomenda</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Duplicidade</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +256,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +313,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9EDF4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0D8E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -236,13 +355,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -288,6 +493,33 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -631,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -938,13 +1170,132 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D59F23-D1B5-4C12-A4C8-0F89C7A8B41B}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="34.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1157,15 +1508,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075DE260-CD29-43EF-B06A-0CEA25D7CBBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0082AE70-4B18-4297-BE85-397536646837}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8fbac98a-088d-4061-8c67-4c3651ce8eda"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b6133518-d5b5-4709-baeb-017542c0eeef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1190,18 +1553,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0082AE70-4B18-4297-BE85-397536646837}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075DE260-CD29-43EF-B06A-0CEA25D7CBBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="8fbac98a-088d-4061-8c67-4c3651ce8eda"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b6133518-d5b5-4709-baeb-017542c0eeef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/scr/template_abertura.xlsx
+++ b/scr/template_abertura.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Setorial Análise\. 1-SETORIAL CONSTRUÇÃO E INDÚSTRIA\App - Auto_Forms\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Otimização e Automatização\5. Projetos\0. Streamlit\app_autoforms\scr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23CE169-5B5D-4260-B705-1D9880CD1A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA47626-97A9-4972-8AB2-8F32569825CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitação de novos Inform." sheetId="4" r:id="rId1"/>
@@ -485,21 +485,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -520,6 +505,21 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
@@ -893,96 +893,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
@@ -1174,7 +1174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D59F23-D1B5-4C12-A4C8-0F89C7A8B41B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1184,103 +1184,103 @@
     <col min="2" max="2" width="34.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:4" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:4" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:4" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:4" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:4" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:4" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1299,6 +1299,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007101A1F8520F7949872B976AD1B8563A" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="953340872e789bd7889a9c32a5feb0d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b6133518-d5b5-4709-baeb-017542c0eeef" xmlns:ns4="8fbac98a-088d-4061-8c67-4c3651ce8eda" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c4a53f8f957c9b47e686927e1abd2dd0" ns3:_="" ns4:_="">
     <xsd:import namespace="b6133518-d5b5-4709-baeb-017542c0eeef"/>
@@ -1507,15 +1516,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0082AE70-4B18-4297-BE85-397536646837}">
   <ds:schemaRefs>
@@ -1534,6 +1534,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075DE260-CD29-43EF-B06A-0CEA25D7CBBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{988CB7B8-EE7F-4B6D-9873-6D6483910680}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1550,12 +1558,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075DE260-CD29-43EF-B06A-0CEA25D7CBBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>